--- a/dados/tamandare shop.xlsx
+++ b/dados/tamandare shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -463,100 +473,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.4</v>
+        <v>390.43</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1059581606#searchVariation=MLB21392652&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1059581606#searchVariation=MLB23456525&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>390.43</v>
+        <v>624.33</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1059581606#searchVariation=MLB23456525&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1059581606#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.33</v>
+        <v>499.46</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1059581606#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1059581606#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>845.87</v>
+        <v>493.42</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1059581606#searchVariation=MLB21348561&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1059581606#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
@@ -571,17 +621,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1059581606#searchVariation=MLB21320712&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1059581606#searchVariation=MLB21320712&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
@@ -596,142 +656,190 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1059581606#searchVariation=MLB28722231&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1059581606#searchVariation=MLB28722231&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>499.46</v>
+        <v>573.36</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1059581606#searchVariation=MLB22144397&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1059581606#searchVariation=MLB23998473&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>774.88</v>
+        <v>58.13</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1059581606#searchVariation=MLB24006449&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:1059581606#searchVariation=MLB32364344&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.13</v>
+        <v>774.88</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:1059581606#searchVariation=MLB32364344&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1059581606#searchVariation=MLB30464905&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>493.42</v>
+        <v>523.63</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1059581606#searchVariation=MLB21455208&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>774.88</v>
+        <v>681.83</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1059581606#searchVariation=MLB30464905&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3299486077-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
@@ -746,374 +854,472 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:1059581606#searchVariation=MLB25707531&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:1059581606#searchVariation=MLB25707531&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>573.36</v>
+        <v>473.28</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1059581606#searchVariation=MLB23998473&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63.33</v>
+        <v>774.88</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:1059581606#searchVariation=MLB27970249&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1059581606#searchVariation=MLB24006449&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.13</v>
+        <v>63.33</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:1059581606#searchVariation=MLB32381086&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:1059581606#searchVariation=MLB27970249&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Monovolt 220v Carregado</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>523.63</v>
+        <v>736.61</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4050227022-fonte-automotiva-jfa-storm-lite-200a-monovolt-220v-carregado-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 40a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>674.6799999999999</v>
+        <v>382.65</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880317963-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3928397074-fonte-automotiva-jfa-storm-lite-40a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>736.61</v>
+        <v>58.13</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185910760-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:1059581606#searchVariation=MLB32381086&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>681.83</v>
+        <v>61.19</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3299486077-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3532924240-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
+          <t>Processador De Som Carro Audio Digital Jfa J4 Pro Red 12v</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>473.28</v>
+        <v>259</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/processador-de-som-carro-audio-digital-jfa-j4-pro-red-12v/p/MLB26904269?pdp_filters=seller_id:1059581606#searchVariation=MLB26904269&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.19</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532924240-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1059581606#searchVariation=MLB27685629&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Monovolt 220v Carregado</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>736.61</v>
+        <v>66.66</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050227022-fonte-automotiva-jfa-storm-lite-200a-monovolt-220v-carregado-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3532925588-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 40a Bivolt Carregador</t>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>382.65</v>
+        <v>61.19</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3928397074-fonte-automotiva-jfa-storm-lite-40a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2893234622-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Processador De Som Carro Audio Digital Jfa J4 Pro Red 12v</t>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>259</v>
+        <v>58.13</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/processador-de-som-carro-audio-digital-jfa-j4-pro-red-12v/p/MLB26904269?pdp_filters=seller_id:1059581606#searchVariation=MLB26904269&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611423972-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/cinza</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.90000000000001</v>
+        <v>62.89</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1059581606#searchVariation=MLB27685629&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611368233-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>Controle Longa Distancia Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>66.66</v>
+        <v>61.19</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532925588-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2893279497-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1121,442 +1327,559 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893234622-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611340362-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
+          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>58.13</v>
+        <v>736.61</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611423972-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3185910760-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/cinza</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>62.89</v>
+        <v>408.73</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611368233-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3299288267-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Automotivo Digital Vs5hi Jfa</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.9</v>
+        <v>805.59</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4830755602-voltimetro-sequenciador-automotivo-digital-vs5hi-jfa-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1059581606#searchVariation=MLB21348561&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>61.19</v>
+        <v>66.2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893279497-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3532912806-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>61.19</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611340362-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1059581606#searchVariation=MLB27687422&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>408.73</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3299288267-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1059581606#searchVariation=MLB21392652&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>66.2</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532912806-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1059581606#searchVariation=MLB28961390&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.90000000000001</v>
+        <v>443.07</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1059581606#searchVariation=MLB27687422&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1059581606#searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.90000000000001</v>
+        <v>716.71</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1059581606#searchVariation=MLB28961390&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3532738024-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>443.07</v>
+        <v>66.2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1059581606#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=d3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3532975404-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>716.71</v>
+        <v>845.87</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532738024-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2880352250-fonte-automotiva-jfa-storm-200a-bivolt-carregador-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua 1200 Resistente A Água </t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.2</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532975404-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2893409969-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua 1200 Resistente A Água </t>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.90000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893409969-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611321556-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>66.2</v>
+        <v>364.95</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611321556-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3366714234-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>364.95</v>
+        <v>539.74</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3366714234-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3208645605-fonte-automotiva-jfa-bob-storm-120a-bivolt-carregador-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>805.59</v>
+        <v>634.4</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880498288-fonte-automotiva-jfa-storm-200a-bivolt-carregador-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3208645605-fonte-automotiva-jfa-bob-storm-120a-bivolt-carregador-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd3e302ae-a652-4dd6-bbfa-85430b505050</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2880323548-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
         </is>
       </c>
     </row>

--- a/dados/tamandare shop.xlsx
+++ b/dados/tamandare shop.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,16 +473,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>634.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -496,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1059581606#searchVariation=MLB23456525&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1059581606#searchVariation=MLB21392652&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
@@ -511,14 +511,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>624.33</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -536,58 +536,58 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1059581606#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1059581606#searchVariation=MLB24834408&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>641.27</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1059581606#searchVariation=MLB22144397&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1059581606#searchVariation=MLB24154371&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>845.87</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -601,12 +601,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1059581606#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1059581606#searchVariation=MLB21348561&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>443.07</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -641,23 +641,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1059581606#searchVariation=MLB21320712&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1059581606#searchVariation=MLB21320712&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>58.13</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -667,28 +667,28 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1059581606#searchVariation=MLB28722231&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:1059581606#searchVariation=MLB32364344&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>573.36</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>499.46</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -697,38 +697,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1059581606#searchVariation=MLB23998473&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1059581606#searchVariation=MLB22144397&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>493.42</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -738,28 +742,28 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:1059581606#searchVariation=MLB32364344&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1059581606#searchVariation=MLB21455208&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>66.2</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -769,29 +773,25 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1059581606#searchVariation=MLB30464905&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1059581606#searchVariation=MLB28722231&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>641.27</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -804,32 +804,28 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1059581606#searchVariation=MLB30464905&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -839,23 +835,23 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3299486077-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:1059581606#searchVariation=MLB25707531&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>63.33</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -870,32 +866,28 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:1059581606#searchVariation=MLB25707531&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:1059581606#searchVariation=MLB27970249&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>774.88</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -905,23 +897,23 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1059581606#searchVariation=MLB24006449&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>473.28</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -940,56 +932,64 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1059581606#searchVariation=MLB24006449&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>63.33</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>523.63</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:1059581606#searchVariation=MLB27970249&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Monovolt 220v Carregado</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -997,30 +997,34 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050227022-fonte-automotiva-jfa-storm-lite-200a-monovolt-220v-carregado-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880317963-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 40a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>382.65</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>610.0599999999999</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1033,23 +1037,23 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3928397074-fonte-automotiva-jfa-storm-lite-40a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3299486077-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>78.90000000000001</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -1064,59 +1068,63 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:1059581606#searchVariation=MLB32381086&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1059581606#searchVariation=MLB27685629&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Bob Storm 200a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532924240-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185894181-fonte-automotiva-jfa-bob-storm-200a-bivolt-carregador-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Processador De Som Carro Audio Digital Jfa J4 Pro Red 12v</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>259</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Monovolt 220v Carregado</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>610.0599999999999</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1126,23 +1134,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/processador-de-som-carro-audio-digital-jfa-j4-pro-red-12v/p/MLB26904269?pdp_filters=seller_id:1059581606#searchVariation=MLB26904269&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4050227022-fonte-automotiva-jfa-storm-lite-200a-monovolt-220v-carregado-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>58.13</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1157,28 +1165,28 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1059581606#searchVariation=MLB27685629&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:1059581606#searchVariation=MLB32381086&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>66.66</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm Lite 40a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>382.65</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1188,28 +1196,28 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532925588-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3928397074-fonte-automotiva-jfa-storm-lite-40a-bivolt-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>736.61</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1219,23 +1227,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893234622-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185910760-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>61.19</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -1250,23 +1258,23 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611423972-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532924240-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/cinza</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Processador De Som Carro Audio Digital Jfa J4 Pro Red 12v</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>259</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -1276,28 +1284,28 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611368233-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/processador-de-som-carro-audio-digital-jfa-j4-pro-red-12v/p/MLB26904269?pdp_filters=seller_id:1059581606#searchVariation=MLB26904269&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>66.66</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1312,23 +1320,23 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893279497-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532925588-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
@@ -1343,32 +1351,28 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611340362-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2893234622-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Voltímetro Sequenciador Automotivo Digital Vs5hi Jfa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1378,32 +1382,28 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185910760-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4830755602-voltimetro-sequenciador-automotivo-digital-vs5hi-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>408.73</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>58.13</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1413,58 +1413,54 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3299288267-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611423972-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/cinza</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1059581606#searchVariation=MLB21348561&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611368233-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Distancia Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>61.19</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1474,63 +1470,63 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532912806-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2893279497-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>61.19</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1059581606#searchVariation=MLB27687422&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611340362-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>365.71</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1540,33 +1536,33 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1059581606#searchVariation=MLB21392652&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3299288267-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>66.2</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1576,29 +1572,25 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1059581606#searchVariation=MLB28961390&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532912806-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1611,29 +1603,25 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1059581606#searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1059581606#searchVariation=MLB27687422&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>716.71</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1646,28 +1634,32 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532738024-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1059581606#searchVariation=MLB28961390&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1677,32 +1669,28 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532975404-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1059581606#searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1712,7 +1700,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880352250-fonte-automotiva-jfa-storm-200a-bivolt-carregador-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532975404-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
@@ -1722,13 +1710,13 @@
           <t xml:space="preserve">Controle Longa Distancia Jfa Acqua 1200 Resistente A Água </t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>91.90000000000001</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1743,7 +1731,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893409969-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2893409969-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
@@ -1753,13 +1741,13 @@
           <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>66.2</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1774,7 +1762,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611321556-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611321556-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
@@ -1784,17 +1772,17 @@
           <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
+      <c r="C42" t="n">
+        <v>326.53</v>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1809,23 +1797,23 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3366714234-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3366714234-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 200a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>805.59</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1839,28 +1827,28 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3208645605-fonte-automotiva-jfa-bob-storm-120a-bivolt-carregador-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880498288-fonte-automotiva-jfa-storm-200a-bivolt-carregador-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>539.74</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1874,12 +1862,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880323548-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bbd667f-7973-46f3-8002-ad8a2a01b9fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3208645605-fonte-automotiva-jfa-bob-storm-120a-bivolt-carregador-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
         </is>
       </c>
     </row>

--- a/dados/tamandare shop.xlsx
+++ b/dados/tamandare shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,16 +473,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>634.4</v>
+        <v>390.43</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -496,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1059581606#searchVariation=MLB21392652&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1059581606#searchVariation=MLB23456525&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
@@ -536,27 +536,27 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1059581606#searchVariation=MLB24834408&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1059581606#searchVariation=MLB24834408&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>641.27</v>
+        <v>845.87</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -571,23 +571,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1059581606#searchVariation=MLB24154371&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1059581606#searchVariation=MLB21348561&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>845.87</v>
+        <v>774.88</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -606,23 +606,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1059581606#searchVariation=MLB21348561&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1059581606#searchVariation=MLB24006449&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>443.07</v>
+        <v>634.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -641,25 +641,29 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1059581606#searchVariation=MLB21320712&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1059581606#searchVariation=MLB21392652&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -667,28 +671,28 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:1059581606#searchVariation=MLB32364344&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1059581606#searchVariation=MLB28722231&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>499.46</v>
+        <v>443.07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -707,23 +711,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1059581606#searchVariation=MLB22144397&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1059581606#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>493.42</v>
+        <v>716.71</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -737,19 +741,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1059581606#searchVariation=MLB21455208&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1059581606#searchVariation=MLB24154371&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -758,7 +762,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66.2</v>
+        <v>39.9</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -768,64 +772,72 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1059581606#searchVariation=MLB28722231&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:1059581606#searchVariation=MLB25707531&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>641.27</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>499.46</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1059581606#searchVariation=MLB30464905&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1059581606#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>493.42</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -835,7 +847,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:1059581606#searchVariation=MLB25707531&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1059581606#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
@@ -847,13 +859,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>63.33</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -866,38 +882,42 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:1059581606#searchVariation=MLB27970249&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:1059581606#searchVariation=MLB27970249&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>61.19</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1059581606#searchVariation=MLB24006449&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2893234622-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
@@ -932,23 +952,23 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Bob Storm 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>523.63</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -967,23 +987,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185894181-fonte-automotiva-jfa-bob-storm-200a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>674.6799999999999</v>
+        <v>523.63</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1002,27 +1022,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880317963-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>610.0599999999999</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1032,33 +1052,37 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3299486077-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880317963-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1068,23 +1092,23 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1059581606#searchVariation=MLB27685629&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611268723-controle-longa-distancia-jfa-redline-wr-1200-metros-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 200a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>694.8200000000001</v>
+        <v>681.83</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1098,33 +1122,37 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185894181-fonte-automotiva-jfa-bob-storm-200a-bivolt-carregador-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3299486077-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Monovolt 220v Carregado</t>
+          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>610.0599999999999</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>736.61</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1134,7 +1162,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4050227022-fonte-automotiva-jfa-storm-lite-200a-monovolt-220v-carregado-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185910760-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
@@ -1146,13 +1174,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>58.13</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1165,7 +1197,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:1059581606#searchVariation=MLB32381086&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:1059581606#searchVariation=MLB32381086&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
@@ -1196,14 +1228,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3928397074-fonte-automotiva-jfa-storm-lite-40a-bivolt-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3928397074-fonte-automotiva-jfa-storm-lite-40a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
+          <t>Filtro Rca Anti-ruído Jfa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1212,12 +1244,12 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>736.61</v>
+        <v>58.9</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1227,7 +1259,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185910760-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3316569414-filtro-rca-anti-ruido-jfa-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
@@ -1239,13 +1271,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>61.19</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1258,25 +1294,29 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532924240-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532924240-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Processador De Som Carro Audio Digital Jfa J4 Pro Red 12v</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>259</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>61.19</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1289,7 +1329,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/processador-de-som-carro-audio-digital-jfa-j4-pro-red-12v/p/MLB26904269?pdp_filters=seller_id:1059581606#searchVariation=MLB26904269&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611340362-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
@@ -1301,13 +1341,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>66.66</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1320,28 +1364,32 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532925588-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532925588-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>408.73</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1351,25 +1399,29 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893234622-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3299288267-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Automotivo Digital Vs5hi Jfa</t>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/cinza</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>62.89</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1377,30 +1429,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4830755602-voltimetro-sequenciador-automotivo-digital-vs5hi-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611368233-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
+          <t>Controle Longa Distancia Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>61.19</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1413,25 +1469,29 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611423972-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2893279497-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/cinza</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1439,94 +1499,102 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611368233-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1059581606#searchVariation=MLB27685629&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>91.90000000000001</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893279497-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1059581606#searchVariation=MLB27687422&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>91.90000000000001</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611340362-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1059581606#searchVariation=MLB28961390&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>365.71</v>
+        <v>536.26</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1541,28 +1609,32 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3299288267-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1059581606#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1572,28 +1644,32 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532912806-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1059581606#searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1603,28 +1679,32 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1059581606#searchVariation=MLB27687422&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532912806-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1634,23 +1714,23 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1059581606#searchVariation=MLB28961390&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532975404-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>443.07</v>
+        <v>364.95</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1664,30 +1744,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1059581606#searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3366714234-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>66.2</v>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1700,28 +1784,32 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532975404-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611321556-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa Acqua 1200 Resistente A Água </t>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1731,58 +1819,62 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893409969-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2893254371-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>805.59</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611321556-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880498288-fonte-automotiva-jfa-storm-200a-bivolt-carregador-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>326.53</v>
+        <v>539.74</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1792,82 +1884,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3366714234-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880498288-fonte-automotiva-jfa-storm-200a-bivolt-carregador-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3208645605-fonte-automotiva-jfa-bob-storm-120a-bivolt-carregador-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6739fb80-0019-4275-bdde-9f45f22bdc2e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3208645605-fonte-automotiva-jfa-bob-storm-120a-bivolt-carregador-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
         </is>
       </c>
     </row>

--- a/dados/tamandare shop.xlsx
+++ b/dados/tamandare shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1423 +483,2189 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>390.43</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1059581606#searchVariation=MLB23456525&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1059581606#searchVariation=MLB23456525&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>624.33</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>716.71</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1059581606#searchVariation=MLB24834408&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1059581606#searchVariation=MLB24154371&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>845.87</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>58.54</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1059581606#searchVariation=MLB21348561&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:1059581606#searchVariation=MLB32364344&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>774.88</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1059581606#searchVariation=MLB24006449&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1059581606#searchVariation=MLB21348561&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>634.4</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1059581606#searchVariation=MLB21392652&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1059581606#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>66.2</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>499.46</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1059581606#searchVariation=MLB28722231&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1059581606#searchVariation=MLB22144397&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>443.07</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>66.66</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1059581606#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1059581606#searchVariation=MLB28722231&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>716.71</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>402.79</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1059581606#searchVariation=MLB24154371&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1059581606#searchVariation=MLB21621306&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>493.42</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:1059581606#searchVariation=MLB25707531&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1059581606#searchVariation=MLB21455208&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>499.46</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1059581606#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:1059581606#searchVariation=MLB25707531&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>493.42</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1059581606#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1059581606#searchVariation=MLB21392652&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>63.33</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>443.07</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:1059581606#searchVariation=MLB27970249&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1059581606#searchVariation=MLB21320712&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>61.19</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>58.54</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893234622-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:1059581606#searchVariation=MLB27970249&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>473.28</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>774.88</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1059581606#searchVariation=MLB24006449&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 200a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>694.8200000000001</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>473.28</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185894181-fonte-automotiva-jfa-bob-storm-200a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>523.63</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Bob Storm 200a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3185894181-fonte-automotiva-jfa-bob-storm-200a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>674.6799999999999</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>681.83</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880317963-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3299486077-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>98.90000000000001</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>736.61</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611268723-controle-longa-distancia-jfa-redline-wr-1200-metros-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3185910760-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>681.83</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Voltímetro Sequenciador Automotivo Digital Vs5hi Jfa</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3299486077-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4830755602-voltimetro-sequenciador-automotivo-digital-vs5hi-jfa-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>736.61</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>523.63</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185910760-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>58.13</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:1059581606#searchVariation=MLB32381086&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2893234622-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa Storm Lite 40a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>382.65</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="n">
+        <v>325.25</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3928397074-fonte-automotiva-jfa-storm-lite-40a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3928397074-fonte-automotiva-jfa-storm-lite-40a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Filtro Rca Anti-ruído Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3316569414-filtro-rca-anti-ruido-jfa-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2880317963-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>61.19</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>58.54</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532924240-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:1059581606#searchVariation=MLB32381086&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>61.19</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>536.26</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611340362-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1059581606#searchVariation=MLB23998473&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>66.66</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 40a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>433</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532925588-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2880344100-fonte-automotiva-jfa-storm-40a-bivolt-carregador-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>408.73</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Filtro Rca Anti-ruído Jfa</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3299288267-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3316569414-filtro-rca-anti-ruido-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/cinza</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>62.89</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>98.90000000000001</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611368233-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611268723-controle-longa-distancia-jfa-redline-wr-1200-metros-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893279497-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3532925588-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>78.90000000000001</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1059581606#searchVariation=MLB27685629&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611340362-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>91.90000000000001</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>58.54</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1059581606#searchVariation=MLB27687422&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611423972-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>91.90000000000001</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>61.62</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1059581606#searchVariation=MLB28961390&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3532924240-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>536.26</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>408.73</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1059581606#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3299288267-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>443.07</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Azul</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>61.62</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1059581606#searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=be8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2893279497-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>66.2</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/cinza</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532912806-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611368233-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>66.2</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Branco/cinza</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>63.33</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532975404-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611344821-controle-universal-longa-distancia-jfa-k600-brancocinza-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>364.95</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>63.33</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3366714234-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611405112-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>66.2</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/verde</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>63.33</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611321556-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611363560-controle-universal-longa-distancia-jfa-k600-pretoverde-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893254371-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3532912806-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>805.59</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>78.90000000000001</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880498288-fonte-automotiva-jfa-storm-200a-bivolt-carregador-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1059581606#searchVariation=MLB27685629&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>539.74</v>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3208645605-fonte-automotiva-jfa-bob-storm-120a-bivolt-carregador-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbe8e9dda-52ea-4a5b-99d9-a155cacea0b1</t>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1059581606#searchVariation=MLB28961390&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1059581606#searchVariation=MLB27687422&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1059581606#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3532975404-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611321556-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>573.36</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3316337140-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>364.95</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3366714234-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2893254371-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2880498288-fonte-automotiva-jfa-storm-200a-bivolt-carregador-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
         </is>
       </c>
     </row>

--- a/dados/tamandare shop.xlsx
+++ b/dados/tamandare shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Automotiva Jfa Storm 40a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>390.43</v>
+        <v>433</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1059581606#searchVariation=MLB23456525&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880344100-fonte-automotiva-jfa-storm-40a-bivolt-carregador-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,16 +538,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>716.71</v>
+        <v>473.28</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1059581606#searchVariation=MLB24154371&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,16 +583,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>58.54</v>
+        <v>774.88</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -601,24 +601,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:1059581606#searchVariation=MLB32364344&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1059581606#searchVariation=MLB24006449&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,20 +628,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>845.87</v>
+        <v>552.35</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -651,19 +651,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1059581606#searchVariation=MLB21348561&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1059581606#searchVariation=MLB23998473&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,16 +673,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>624.33</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -696,19 +696,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1059581606#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880317963-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,22 +718,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 40a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>325.25</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -746,14 +742,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1059581606#searchVariation=MLB22144397&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3928397074-fonte-automotiva-jfa-storm-lite-40a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,42 +759,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.66</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>39.9</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1059581606#searchVariation=MLB28722231&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:1059581606#searchVariation=MLB25707531&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,16 +800,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>402.79</v>
+        <v>58.54</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -836,14 +828,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1059581606#searchVariation=MLB21621306&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:1059581606#searchVariation=MLB32364344&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,16 +845,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>493.42</v>
+        <v>66.66</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -876,19 +868,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1059581606#searchVariation=MLB21455208&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1059581606#searchVariation=MLB28722231&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,21 +890,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>61.62</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -922,14 +918,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:1059581606#searchVariation=MLB25707531&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532924240-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,16 +935,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>634.4</v>
+        <v>402.79</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -967,14 +963,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1059581606#searchVariation=MLB21392652&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1059581606#searchVariation=MLB21621306&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,16 +980,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>443.07</v>
+        <v>624.33</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1012,14 +1008,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1059581606#searchVariation=MLB21320712&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1059581606#searchVariation=MLB24834408&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,25 +1025,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>58.54</v>
+        <v>702.29</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1057,14 +1053,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:1059581606#searchVariation=MLB27970249&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3299486077-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1074,16 +1070,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>774.88</v>
+        <v>523.63</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1102,14 +1098,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1059581606#searchVariation=MLB24006449&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,16 +1115,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>473.28</v>
+        <v>493.42</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1142,19 +1138,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1059581606#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1164,16 +1160,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 200a Bivolt Carregador</t>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>694.8200000000001</v>
+        <v>61.62</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1187,19 +1183,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185894181-fonte-automotiva-jfa-bob-storm-200a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2893234622-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1209,16 +1205,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>681.83</v>
+        <v>845.87</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1232,19 +1228,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3299486077-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1059581606#searchVariation=MLB21348561&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1254,16 +1250,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
+          <t>Fonte Automotiva Jfa Bob Storm 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>736.61</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1277,19 +1273,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185910760-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185894181-fonte-automotiva-jfa-bob-storm-200a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1299,21 +1295,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Automotivo Digital Vs5hi Jfa</t>
+          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>736.61</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1323,14 +1323,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4830755602-voltimetro-sequenciador-automotivo-digital-vs5hi-jfa-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185910760-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1340,16 +1340,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>523.63</v>
+        <v>58.54</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1363,19 +1363,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611423972-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1385,16 +1385,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>61.62</v>
+        <v>499.46</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1413,14 +1413,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893234622-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1059581606#searchVariation=MLB22144397&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 40a Bivolt Carregador</t>
+          <t>Voltímetro Sequenciador Automotivo Digital Vs5hi Jfa</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>325.25</v>
+        <v>62.9</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
@@ -1454,14 +1454,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3928397074-fonte-automotiva-jfa-storm-lite-40a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4830755602-voltimetro-sequenciador-automotivo-digital-vs5hi-jfa-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1471,20 +1471,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
+          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>674.6799999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1494,19 +1494,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880317963-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611268723-controle-longa-distancia-jfa-redline-wr-1200-metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1516,42 +1516,42 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.54</v>
+        <v>402.14</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:1059581606#searchVariation=MLB32381086&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1059581606#searchVariation=MLB23456525&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1561,16 +1561,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>536.26</v>
+        <v>61.62</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1589,14 +1589,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1059581606#searchVariation=MLB23998473&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532925588-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1606,16 +1606,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 40a Bivolt Carregador</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>433</v>
+        <v>634.4</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1629,19 +1629,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880344100-fonte-automotiva-jfa-storm-40a-bivolt-carregador-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1059581606#searchVariation=MLB21392652&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1651,21 +1651,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Filtro Rca Anti-ruído Jfa</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
+        <v>61.62</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1675,14 +1679,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3316569414-filtro-rca-anti-ruido-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611340362-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1692,20 +1696,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>98.90000000000001</v>
+        <v>58.54</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1720,14 +1724,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611268723-controle-longa-distancia-jfa-redline-wr-1200-metros-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:1059581606#searchVariation=MLB27970249&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1737,25 +1741,21 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>Filtro Rca Anti-ruído Jfa</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>61.62</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>58.9</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1765,14 +1765,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532925588-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3316569414-filtro-rca-anti-ruido-jfa-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1782,16 +1782,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>61.62</v>
+        <v>63.33</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1805,19 +1805,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611340362-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611405112-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1827,16 +1827,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>58.54</v>
+        <v>443.07</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1855,14 +1855,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611423972-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1059581606#searchVariation=MLB21320712&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1872,16 +1872,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+          <t>Controle Universal Longa Distancia Jfa K600 Branco/cinza</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>61.62</v>
+        <v>63.33</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1895,19 +1895,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532924240-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611344821-controle-universal-longa-distancia-jfa-k600-brancocinza-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1917,16 +1917,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>408.73</v>
+        <v>58.54</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1945,14 +1945,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3299288267-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:1059581606#searchVariation=MLB32381086&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1962,25 +1962,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>61.62</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1990,14 +1990,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893279497-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1059581606#searchVariation=MLB27685629&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2035,14 +2035,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611368233-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611368233-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2052,16 +2052,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Branco/cinza</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>63.33</v>
+        <v>443.07</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2080,14 +2080,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611344821-controle-universal-longa-distancia-jfa-k600-brancocinza-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1059581606#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2097,16 +2097,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
+          <t>Controle Longa Distancia Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>63.33</v>
+        <v>61.62</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2120,19 +2120,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611405112-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2893279497-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2142,16 +2142,16 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/verde</t>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>63.33</v>
+        <v>88.52</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2170,14 +2170,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611363560-controle-universal-longa-distancia-jfa-k600-pretoverde-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1059581606#searchVariation=MLB28961390&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2187,16 +2187,16 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>66.66</v>
+        <v>88.52</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2215,14 +2215,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532912806-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1059581606#searchVariation=MLB27687422&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2232,25 +2232,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>78.90000000000001</v>
+        <v>421</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2260,14 +2260,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1059581606#searchVariation=MLB27685629&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3299288267-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2277,16 +2277,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>88.52</v>
+        <v>66.66</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2305,14 +2305,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1059581606#searchVariation=MLB28961390&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532912806-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2322,16 +2322,16 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/verde</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>88.52</v>
+        <v>63.33</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2350,14 +2350,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1059581606#searchVariation=MLB27687422&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611363560-controle-universal-longa-distancia-jfa-k600-pretoverde-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2367,16 +2367,16 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>443.07</v>
+        <v>66.66</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2395,14 +2395,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1059581606#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532975404-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2412,16 +2412,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>66.66</v>
+        <v>805.59</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2430,24 +2430,24 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532975404-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880498288-fonte-automotiva-jfa-storm-200a-bivolt-carregador-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2485,14 +2485,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611321556-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2893254371-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2502,20 +2502,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>573.36</v>
+        <v>375.9</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3316337140-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3366714234-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2547,20 +2547,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>364.95</v>
+        <v>590.5599999999999</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2570,19 +2570,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3366714234-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3316337140-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2592,16 +2592,16 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>66.66</v>
+        <v>539.74</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2620,14 +2620,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893254371-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3208645605-fonte-automotiva-jfa-bob-storm-120a-bivolt-carregador-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2637,16 +2637,16 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bivolt Carregador</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>805.59</v>
+        <v>66.66</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2660,12 +2660,102 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880498288-fonte-automotiva-jfa-storm-200a-bivolt-carregador-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3fd32385-84a9-4b15-ab7a-b2c3065f07de</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611321556-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>447.45</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3532389594-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2dcfecda-a4e7-4720-b6a2-925c30a5a9b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2893422302-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2dcfecda-a4e7-4720-b6a2-925c30a5a9b9</t>
         </is>
       </c>
     </row>

--- a/dados/tamandare shop.xlsx
+++ b/dados/tamandare shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,20 +493,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 40a Bivolt Carregador</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>433</v>
+        <v>402.14</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880344100-fonte-automotiva-jfa-storm-40a-bivolt-carregador-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1059581606#wid=MLB3793810862&amp;sid=search&amp;searchVariation=MLB23456525&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>473.28</v>
+        <v>420.99</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3299288267-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>774.88</v>
+        <v>487.48</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -611,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1059581606#searchVariation=MLB24006449&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -656,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1059581606#searchVariation=MLB23998473&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1059581606#wid=MLB4525579016&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,20 +673,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>674.6799999999999</v>
+        <v>66.66</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880317963-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1059581606#wid=MLB3589924719&amp;sid=search&amp;searchVariation=MLB28722231&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,18 +718,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 40a Bivolt Carregador</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>325.25</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -742,14 +746,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3928397074-fonte-automotiva-jfa-storm-lite-40a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1059581606#wid=MLB3185972030&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,18 +763,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Automotiva Jfa Storm 40a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>445.99</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -778,19 +786,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:1059581606#searchVariation=MLB25707531&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880344100-fonte-automotiva-jfa-storm-40a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -800,20 +808,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>58.54</v>
+        <v>702.29</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -828,14 +836,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:1059581606#searchVariation=MLB32364344&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3299486077-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -845,20 +853,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>66.66</v>
+        <v>514.45</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -868,19 +876,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1059581606#searchVariation=MLB28722231&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1059581606#wid=MLB3374900593&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -890,20 +898,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>61.62</v>
+        <v>694.92</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -913,19 +921,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532924240-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880317963-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -935,20 +943,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>402.79</v>
+        <v>539.34</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -958,19 +966,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1059581606#searchVariation=MLB21621306&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -980,20 +988,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>624.33</v>
+        <v>871.25</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1003,19 +1011,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1059581606#searchVariation=MLB24834408&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1059581606#wid=MLB3185984056&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1025,16 +1033,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>702.29</v>
+        <v>871.25</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1043,24 +1051,24 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3299486077-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5013884260-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1070,20 +1078,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Bob Storm 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>523.63</v>
+        <v>715.66</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1098,14 +1106,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185894181-fonte-automotiva-jfa-bob-storm-200a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1115,20 +1123,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>493.42</v>
+        <v>738.22</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1138,19 +1146,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1059581606#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1059581606#wid=MLB3793778806&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1160,20 +1168,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>61.62</v>
+        <v>58.54</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1188,14 +1196,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893234622-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:1059581606#wid=MLB4611272968&amp;sid=search&amp;searchVariation=MLB32364344&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1205,20 +1213,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>845.87</v>
+        <v>58.54</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1228,19 +1236,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1059581606#searchVariation=MLB21348561&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:1059581606#wid=MLB4337306876&amp;sid=search&amp;searchVariation=MLB27970249&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1250,22 +1258,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 200a Bivolt Carregador</t>
+          <t>Filtro Rca Anti-ruído Jfa</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>58.9</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1273,19 +1277,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185894181-fonte-automotiva-jfa-bob-storm-200a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3316569414-filtro-rca-anti-ruido-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1295,42 +1299,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>736.61</v>
+        <v>402.14</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185910760-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5014622242-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1340,20 +1344,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>58.54</v>
+        <v>456.36</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1368,14 +1372,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611423972-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1059581606#wid=MLB3186010386&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1385,20 +1389,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>499.46</v>
+        <v>508.22</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1413,14 +1417,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1059581606#searchVariation=MLB22144397&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1059581606#wid=MLB3188255390&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1430,18 +1434,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Automotivo Digital Vs5hi Jfa</t>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>58.54</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1454,14 +1462,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4830755602-voltimetro-sequenciador-automotivo-digital-vs5hi-jfa-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:1059581606#wid=MLB4611272192&amp;sid=search&amp;searchVariation=MLB32381086&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1471,22 +1479,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+          <t>Voltímetro Sequenciador Automotivo Digital Vs5hi Jfa</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>62.9</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1499,14 +1503,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611268723-controle-longa-distancia-jfa-redline-wr-1200-metros-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4830755602-voltimetro-sequenciador-automotivo-digital-vs5hi-jfa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1516,20 +1520,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>402.14</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1539,19 +1543,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1059581606#searchVariation=MLB23456525&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1059581606#wid=MLB4337047422&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1561,42 +1565,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>61.62</v>
+        <v>738.22</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532925588-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5014496492-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1606,42 +1610,42 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>634.4</v>
+        <v>798.12</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1059581606#searchVariation=MLB21392652&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5013887014-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1651,22 +1655,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>61.62</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>641.27</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1674,19 +1674,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611340362-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:1059581606#wid=MLB4411630716&amp;sid=search&amp;searchVariation=MLB30464905&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1696,16 +1696,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>58.54</v>
+        <v>64.86</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1724,14 +1724,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:1059581606#searchVariation=MLB27970249&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:1059581606#wid=MLB3822683293&amp;sid=search&amp;searchVariation=MLB34210379&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1741,38 +1741,42 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Filtro Rca Anti-ruído Jfa</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>694.92</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3316569414-filtro-rca-anti-ruido-jfa-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3823457059-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1782,20 +1786,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
+          <t>Fonte Automotiva Jfa Bob Storm 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>63.33</v>
+        <v>715.66</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1810,14 +1814,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611405112-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3823450859-fonte-automotiva-jfa-bob-storm-200a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1827,20 +1831,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>443.07</v>
+        <v>798.12</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1850,19 +1854,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1059581606#searchVariation=MLB21320712&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1059581606#wid=MLB4389077206&amp;sid=search&amp;searchVariation=MLB24006449&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1872,42 +1876,42 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Branco/cinza</t>
+          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>63.33</v>
+        <v>758.71</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611344821-controle-universal-longa-distancia-jfa-k600-brancocinza-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185910760-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1917,42 +1921,42 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>58.54</v>
+        <v>447.46</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:1059581606#searchVariation=MLB32381086&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5014793908-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1962,16 +1966,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>78.90000000000001</v>
+        <v>414.87</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1990,14 +1994,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1059581606#searchVariation=MLB27685629&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1059581606#wid=MLB3207995631&amp;sid=search&amp;searchVariation=MLB21621306&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2007,20 +2011,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/cinza</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>62.89</v>
+        <v>487.48</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2035,14 +2039,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611368233-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3823632249-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2052,42 +2056,38 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Modulo Amplificador Jfa Ap 380x4 Rms 4 Canais Potência Cor Preto</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>369.9</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1059581606#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/modulo-amplificador-jfa-ap-380x4-rms-4-canais-potncia-cor-preto/p/MLB36972018?pdp_filters=seller_id:1059581606#wid=MLB3824992939&amp;sid=search&amp;searchVariation=MLB36972018&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>61.62</v>
+        <v>64.86</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2125,14 +2125,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893279497-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:1059581606#wid=MLB3822678781&amp;sid=search&amp;searchVariation=MLB28687615&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2142,20 +2142,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>88.52</v>
+        <v>61.62</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2165,19 +2165,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1059581606#searchVariation=MLB28961390&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3532925588-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2187,25 +2187,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>88.52</v>
+        <v>539.34</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2215,14 +2215,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1059581606#searchVariation=MLB27687422&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5014479656-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2232,25 +2232,21 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>421</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>43.9</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2260,14 +2256,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3299288267-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:1059581606#wid=MLB3833362837&amp;sid=search&amp;searchVariation=MLB25707531&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2277,20 +2273,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>66.66</v>
+        <v>514.45</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2300,19 +2296,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532912806-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5013317670-fonte-automotiva-jfa-bob-storm-120a-bivolt-carregador-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2322,20 +2318,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Distancia Jfa K600 Preto/verde</t>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>63.33</v>
+        <v>590.5599999999999</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2350,14 +2346,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611363560-controle-universal-longa-distancia-jfa-k600-pretoverde-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3823732993-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2367,7 +2363,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2376,11 +2372,11 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>66.66</v>
+        <v>61.62</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2390,19 +2386,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532975404-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB34245679?pdp_filters=seller_id:1059581606#wid=MLB5011639746&amp;sid=search&amp;searchVariation=MLB34245679&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2412,25 +2408,21 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Monovolt 220v Carregado</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>681.9</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2440,14 +2432,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2880498288-fonte-automotiva-jfa-storm-200a-bivolt-carregador-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3823763653-fonte-automotiva-jfa-storm-lite-200a-monovolt-220v-carregado-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2457,20 +2449,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>66.66</v>
+        <v>88.52</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2485,14 +2477,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893254371-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1059581606#wid=MLB3596340525&amp;sid=search&amp;searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=bfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2515,12 +2507,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2530,14 +2522,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3366714234-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5014805048-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2547,16 +2539,16 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>590.5599999999999</v>
+        <v>456.36</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2575,14 +2567,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3316337140-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1059581606#wid=MLB3212407988&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2592,25 +2584,21 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Monovolt 220v Carregado</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>721.9</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2620,14 +2608,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3208645605-fonte-automotiva-jfa-bob-storm-120a-bivolt-carregador-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3823829515-fonte-automotiva-jfa-storm-lite-200a-monovolt-220v-carregado-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2637,20 +2625,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>66.66</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2660,19 +2648,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611321556-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2ba91ab2-0388-4931-8dac-5f5b4b4e495b</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1059581606#wid=MLB4443915612&amp;sid=search&amp;searchVariation=MLB27685629&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=bfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2682,20 +2670,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>447.45</v>
+        <v>61.62</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2705,19 +2693,19 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3532389594-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2dcfecda-a4e7-4720-b6a2-925c30a5a9b9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611340362-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2727,35 +2715,2167 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>Modulo Amplificador Jfa Ap380wx4 Rms 2 Ohm 4 Canais</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>389.9</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3824914289-modulo-amplificador-jfa-ap380wx4-rms-2-ohm-4-canais-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Controle De Longa Distância K1200 Plus Verde Universal Jfa</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distncia-k1200-plus-verde-universal-jfa/p/MLB35497453?pdp_filters=seller_id:1059581606#wid=MLB5014790828&amp;sid=search&amp;searchVariation=MLB35497453&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=bfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>758.71</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5013899504-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4646c5b3-4ea5-4a66-997b-0a020749ff64</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="E55" t="n">
         <v>88.52</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1059581606#wid=MLB4431084004&amp;sid=search&amp;searchVariation=MLB28961390&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=bfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Controle Remoto Longa Distancia Jfa K600 Laranja/Preto</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-laranjapreto/p/MLB31403178?pdp_filters=seller_id:1059581606#wid=MLB3822711417&amp;sid=search&amp;searchVariation=MLB31403178&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=bfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>58.54</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611423972-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>829.76</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5013897342-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2893422302-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2dcfecda-a4e7-4720-b6a2-925c30a5a9b9</t>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:1059581606#wid=MLB5014828832&amp;sid=search&amp;searchVariation=MLB28357019&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3823657867-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>702.29</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3823734763-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611268723-controle-longa-distancia-jfa-redline-wr-1200-metros-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5014768160-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5014400692-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Bob Storm 200a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3823450593-fonte-automotiva-jfa-bob-storm-200a-bivolt-carregador-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3532924240-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>552.35</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5014417228-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3823379691-fonte-automotiva-jfa-storm-120a-bivolt-carregador-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2893234622-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3833603739-filtro-rca-anti-ruido-jfa-cd-dvd-radio-multimidia-stereo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Monovolt 220v Carregado</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>610.0599999999999</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4050227022-fonte-automotiva-jfa-storm-lite-200a-monovolt-220v-carregado-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3823401195-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3823336813-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/laranja</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>63.33</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611405112-controle-universal-longa-distancia-jfa-k600-pretolaranja-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>93.17</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5012133220-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>83.63</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3822809189-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3366714234-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Bob Storm 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>555.9299999999999</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3208645605-fonte-automotiva-jfa-bob-storm-120a-bivolt-carregador-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611321556-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2893422302-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>590.5599999999999</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3316337140-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3832851009-controle-longa-distancia-jfa-k1200-preto-com-verde-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5029258712-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/cinza</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5024414284-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5011742372-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Vermelho</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5011734196-controle-longa-distancia-jfa-k1200-vermelho-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Com Laranja</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3832831323-controle-longa-distancia-jfa-k1200-preto-com-laranja-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/verde</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>59.38</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3827120957-controle-universal-longa-distancia-jfa-k600-pretoverde-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Branco/cinza</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3826687761-controle-universal-longa-distancia-jfa-k600-brancocinza-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>93.17</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3822802179-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Conversor De Fio Rca Remoto Slim Jfa</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5031577494-conversor-de-fio-rca-remoto-slim-jfa-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Voltímetro Sequenciador Automotivo Digital Vs5hi Jfa</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3826457775-voltimetro-sequenciador-automotivo-digital-vs5hi-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Voltímetro Sequenciador Automotivo Digital Vs5hi Jfa</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3822613395-voltimetro-sequenciador-automotivo-digital-vs5hi-jfa-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/verde</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>63.33</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611363560-controle-universal-longa-distancia-jfa-k600-pretoverde-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Branco/cinza</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>63.33</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611344821-controle-universal-longa-distancia-jfa-k600-brancocinza-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>83.63</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5012091788-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3822704331-controle-longa-distancia-jfa-redline-wr-1200-metros-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distancia Jfa K600 Preto/cinza</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2611368233-controle-universal-longa-distancia-jfa-k600-pretocinza-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Filtro Rca Anti-ruído Jfa Cd Dvd Radio Multimídia Stereo</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3833590819-filtro-rca-anti-ruido-jfa-cd-dvd-radio-multimidia-stereo-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>tamandare shop</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>107.04</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3822755313-controle-longa-distancia-jfa-redline-wr-1200-metros-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbfb7c0fc-99ed-44c5-ae50-f11fea6b9de6</t>
         </is>
       </c>
     </row>
